--- a/Excel_Gym_Answer.xlsx
+++ b/Excel_Gym_Answer.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kah Han\Documents\SQL Journey\Excel Guided Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A15444-5AD2-45D3-81CE-2CA37F5C388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947D1BD-E643-4DAA-9806-887EB62C356F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Excel_GYM" sheetId="9" r:id="rId1"/>
+    <sheet name="Formula_Challenge" sheetId="9" r:id="rId1"/>
+    <sheet name="Lookups_Challenge" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>FirstName</t>
   </si>
@@ -242,13 +222,103 @@
   </si>
   <si>
     <t>SUM w/o child</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Return Email</t>
+  </si>
+  <si>
+    <t>Michael Scott</t>
+  </si>
+  <si>
+    <t>Pam Beasley</t>
+  </si>
+  <si>
+    <t>Stanley Hudson</t>
+  </si>
+  <si>
+    <t>Chicken Man</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2:XLookUP (Return Email)</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>C3:XLookUP (Return Email With  Firstname)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Manila Folder</t>
+  </si>
+  <si>
+    <t>C4: XlookUP_UseCase</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>February/March</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,16 +369,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -435,24 +539,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -463,35 +554,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -502,12 +573,319 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -823,7 +1201,7 @@
   <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -840,11 +1218,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="15" t="s">
         <v>44</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -855,46 +1233,46 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="25" t="s">
         <v>58</v>
       </c>
     </row>
@@ -926,26 +1304,11 @@
       <c r="I4" s="1">
         <v>41528</v>
       </c>
-      <c r="J4" s="22" t="str">
-        <f>IF(G4=$C$18,"None",IF(G4=$C$19,"Small","Huge"))</f>
-        <v>None</v>
-      </c>
-      <c r="K4" s="17" t="str" cm="1">
-        <f t="array" ref="K4">_xlfn.IFS(LEFT(D4, 1)="3", "Thirties", LEFT(D4, 1)="2", "Twenties", LEFT(D4, 1)="1", "Underage")</f>
-        <v>Thirties</v>
-      </c>
-      <c r="L4" s="25" t="str">
-        <f>IF(LEN(A4)=4,"Valid","Invalid")</f>
-        <v>Valid</v>
-      </c>
-      <c r="N4" s="7" t="str">
-        <f>_xlfn.CONCAT(B4,".",C4,"@gmail.com")</f>
-        <v>Michael.Scott@gmail.com</v>
-      </c>
-      <c r="O4" s="9" t="str" cm="1">
-        <f t="array" ref="O4:O13">SUBSTITUTE(N4:N13,".","_ ",1)</f>
-        <v>Michael_ Scott@gmail.com</v>
-      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="16"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -975,25 +1338,11 @@
       <c r="I5" s="1">
         <v>42986</v>
       </c>
-      <c r="J5" s="22" t="str">
-        <f>IF(G5=$C$18,"None",IF(G5=$C$19,"Huge","Small"))</f>
-        <v>Small</v>
-      </c>
-      <c r="K5" s="17" t="str" cm="1">
-        <f t="array" ref="K5">_xlfn.IFS(LEFT(D5, 1)="3", "Thirties", LEFT(D5, 1)="2", "Twenties", LEFT(D5, 1)="1", "Underage")</f>
-        <v>Twenties</v>
-      </c>
-      <c r="L5" s="25" t="str">
-        <f t="shared" ref="L5:L13" si="0">IF(LEN(A5)=4,"Valid","Invalid")</f>
-        <v>Valid</v>
-      </c>
-      <c r="N5" s="7" t="str">
-        <f t="shared" ref="N5:N13" si="1">_xlfn.CONCAT(B5,".",C5,"@gmail.com")</f>
-        <v>Dwight.Schrute@gmail.com</v>
-      </c>
-      <c r="O5" s="9" t="str">
-        <v>Dwight_ Schrute@gmail.com</v>
-      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="16"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -1023,25 +1372,11 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-      <c r="J6" s="22" t="str">
-        <f t="shared" ref="J6:J13" si="2">IF(G6=$C$18,"None",IF(G6=$C$19,"Huge","Small"))</f>
-        <v>Small</v>
-      </c>
-      <c r="K6" s="17" t="str" cm="1">
-        <f t="array" ref="K6">_xlfn.IFS(LEFT(D6, 1)="3", "Thirties", LEFT(D6, 1)="2", "Twenties", LEFT(D6, 1)="1", "Underage")</f>
-        <v>Thirties</v>
-      </c>
-      <c r="L6" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Valid</v>
-      </c>
-      <c r="N6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Toby.Flenderson@gmail.com</v>
-      </c>
-      <c r="O6" s="9" t="str">
-        <v>Toby_ Flenderson@gmail.com</v>
-      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="16"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -1071,25 +1406,11 @@
       <c r="I7" s="1">
         <v>42116</v>
       </c>
-      <c r="J7" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-      <c r="K7" s="17" t="str" cm="1">
-        <f t="array" ref="K7">_xlfn.IFS(LEFT(D7, 1)="3", "Thirties", LEFT(D7, 1)="2", "Twenties", LEFT(D7, 1)="1", "Underage")</f>
-        <v>Thirties</v>
-      </c>
-      <c r="L7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Valid</v>
-      </c>
-      <c r="N7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Stanley.Hudson@gmail.com</v>
-      </c>
-      <c r="O7" s="9" t="str">
-        <v>Stanley_ Hudson@gmail.com</v>
-      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="16"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1119,25 +1440,11 @@
       <c r="I8" s="1">
         <v>42341</v>
       </c>
-      <c r="J8" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-      <c r="K8" s="17" t="str" cm="1">
-        <f t="array" ref="K8">_xlfn.IFS(LEFT(D8, 1)="3", "Thirties", LEFT(D8, 1)="2", "Twenties", LEFT(D8, 1)="1", "Underage")</f>
-        <v>Thirties</v>
-      </c>
-      <c r="L8" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Valid</v>
-      </c>
-      <c r="N8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Angela.Martin@gmail.com</v>
-      </c>
-      <c r="O8" s="9" t="str">
-        <v>Angela_ Martin@gmail.com</v>
-      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="16"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1167,25 +1474,11 @@
       <c r="I9" s="1">
         <v>42253</v>
       </c>
-      <c r="J9" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-      <c r="K9" s="17" t="str" cm="1">
-        <f t="array" ref="K9">_xlfn.IFS(LEFT(D9, 1)="3", "Thirties", LEFT(D9, 1)="2", "Twenties", LEFT(D9, 1)="1", "Underage")</f>
-        <v>Thirties</v>
-      </c>
-      <c r="L9" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Valid</v>
-      </c>
-      <c r="N9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Jim.Halpert@gmail.com</v>
-      </c>
-      <c r="O9" s="9" t="str">
-        <v>Jim_ Halpert@gmail.com</v>
-      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="16"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1215,25 +1508,11 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-      <c r="J10" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-      <c r="K10" s="17" t="str" cm="1">
-        <f t="array" ref="K10">_xlfn.IFS(LEFT(D10, 1)="3", "Thirties", LEFT(D10, 1)="2", "Twenties", LEFT(D10, 1)="1", "Underage")</f>
-        <v>Thirties</v>
-      </c>
-      <c r="L10" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Valid</v>
-      </c>
-      <c r="N10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Kevin.Malone@gmail.com</v>
-      </c>
-      <c r="O10" s="9" t="str">
-        <v>Kevin_ Malone@gmail.com</v>
-      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="16"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -1263,25 +1542,11 @@
       <c r="I11" s="1">
         <v>41551</v>
       </c>
-      <c r="J11" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-      <c r="K11" s="17" t="str" cm="1">
-        <f t="array" ref="K11">_xlfn.IFS(LEFT(D11, 1)="3", "Thirties", LEFT(D11, 1)="2", "Twenties", LEFT(D11, 1)="1", "Underage")</f>
-        <v>Thirties</v>
-      </c>
-      <c r="L11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Valid</v>
-      </c>
-      <c r="N11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Meredith.Palmer@gmail.com</v>
-      </c>
-      <c r="O11" s="9" t="str">
-        <v>Meredith_ Palmer@gmail.com</v>
-      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="16"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -1311,25 +1576,11 @@
       <c r="I12" s="1">
         <v>42287</v>
       </c>
-      <c r="J12" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Huge</v>
-      </c>
-      <c r="K12" s="17" t="str" cm="1">
-        <f t="array" ref="K12">_xlfn.IFS(LEFT(D12, 1)="3", "Thirties", LEFT(D12, 1)="2", "Twenties", LEFT(D12, 1)="1", "Underage")</f>
-        <v>Thirties</v>
-      </c>
-      <c r="L12" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Valid</v>
-      </c>
-      <c r="N12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Pam.Beasley@gmail.com</v>
-      </c>
-      <c r="O12" s="9" t="str">
-        <v>Pam_ Beasley@gmail.com</v>
-      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -1359,34 +1610,17 @@
       <c r="I13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>Small</v>
-      </c>
-      <c r="K13" s="19" t="str" cm="1">
-        <f t="array" ref="K13">_xlfn.IFS(LEFT(D13, 1)="3", "Thirties", LEFT(D13, 1)="2", "Twenties", LEFT(D13, 1)="1", "Underage")</f>
-        <v>Underage</v>
-      </c>
-      <c r="L13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Invalid</v>
-      </c>
-      <c r="N13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Jacob.The Child@gmail.com</v>
-      </c>
-      <c r="O13" s="12" t="str">
-        <v>Jacob_ The Child@gmail.com</v>
-      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="16"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="37"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H15" s="1"/>
@@ -1394,13 +1628,13 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1410,54 +1644,41 @@
       <c r="I16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="7" t="str" cm="1">
-        <f t="array" ref="G17:G26">TEXT(H4:H13,"dd/mm/yyyy")</f>
-        <v>07/12/1995</v>
-      </c>
-      <c r="H17" s="8" t="str">
-        <f>RIGHT(G17,4)</f>
-        <v>1995</v>
-      </c>
-      <c r="I17" s="9" t="str">
-        <f>LEFT(G17,2)</f>
-        <v>07</v>
-      </c>
-      <c r="K17" s="32" t="s">
+      <c r="G17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="33" t="str">
-        <f>TRIM(K17)</f>
-        <v>Michael</v>
-      </c>
-      <c r="N17" s="27" t="s">
+      <c r="L17" s="23"/>
+      <c r="N17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="28" t="s">
+      <c r="O17" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1465,185 +1686,73 @@
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="8">
-        <f>MAX(D4:D12)</f>
-        <v>38</v>
-      </c>
-      <c r="C18" s="8">
-        <f>MAX(G4:G12)</f>
-        <v>65000</v>
-      </c>
-      <c r="D18" s="16">
-        <f>MAX(H4:H12)</f>
-        <v>37933</v>
-      </c>
-      <c r="E18" s="17">
-        <f>MAX(I4:I12)</f>
-        <v>42986</v>
-      </c>
-      <c r="G18" s="7" t="str">
-        <v>04/07/2000</v>
-      </c>
-      <c r="H18" s="8" t="str">
-        <f t="shared" ref="H18:H26" si="3">RIGHT(G18,4)</f>
-        <v>2000</v>
-      </c>
-      <c r="I18" s="9" t="str">
-        <f t="shared" ref="I18:I26" si="4">LEFT(G18,2)</f>
-        <v>04</v>
-      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="8"/>
       <c r="K18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="9" t="str">
-        <f t="shared" ref="L18:L20" si="5">TRIM(K18)</f>
-        <v>Dwight</v>
-      </c>
-      <c r="N18" s="10">
-        <f>SUM(G4:G13)</f>
-        <v>437005</v>
-      </c>
-      <c r="O18" s="12">
-        <f>SUMIF(L4:L13,"Valid",G4:G13)</f>
-        <v>437000</v>
-      </c>
+      <c r="L18" s="23"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11">
-        <f>MIN(D4:D12)</f>
-        <v>29</v>
-      </c>
-      <c r="C19" s="11">
-        <f>MIN(G4:G12)</f>
-        <v>36000</v>
-      </c>
-      <c r="D19" s="18">
-        <f>MIN(H4:H12)</f>
-        <v>35040</v>
-      </c>
-      <c r="E19" s="19">
-        <f>MIN(I4:I12)</f>
-        <v>40800</v>
-      </c>
-      <c r="G19" s="7" t="str">
-        <v>06/05/2001</v>
-      </c>
-      <c r="H19" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>2001</v>
-      </c>
-      <c r="I19" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="8"/>
       <c r="K19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>Toby</v>
-      </c>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G20" s="7" t="str">
-        <v>09/06/2002</v>
-      </c>
-      <c r="H20" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>2002</v>
-      </c>
-      <c r="I20" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
-      </c>
-      <c r="K20" s="10" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>Stanley</v>
-      </c>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G21" s="7" t="str">
-        <v>05/01/2000</v>
-      </c>
-      <c r="H21" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="I21" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
-      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G22" s="7" t="str">
-        <v>02/11/2001</v>
-      </c>
-      <c r="H22" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>2001</v>
-      </c>
-      <c r="I22" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
-      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G23" s="7" t="str">
-        <v>10/08/2003</v>
-      </c>
-      <c r="H23" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>2003</v>
-      </c>
-      <c r="I23" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G24" s="7" t="str">
-        <v>08/11/2003</v>
-      </c>
-      <c r="H24" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>2003</v>
-      </c>
-      <c r="I24" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
-      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G25" s="7" t="str">
-        <v>03/10/1999</v>
-      </c>
-      <c r="H25" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>1999</v>
-      </c>
-      <c r="I25" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>03</v>
-      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G26" s="10" t="str">
-        <v>Null</v>
-      </c>
-      <c r="H26" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Null</v>
-      </c>
-      <c r="I26" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Nu</v>
-      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J12">
@@ -1655,4 +1764,971 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39989B-4841-49A7-83D0-1E9A6883B815}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="G1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>35040</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>36711</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>37017</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>37416</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>36530</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>37197</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="G8" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>37843</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="G9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>37933</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>36436</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="40">
+        <v>450</v>
+      </c>
+      <c r="C14" s="40">
+        <v>310</v>
+      </c>
+      <c r="D14" s="40">
+        <v>150</v>
+      </c>
+      <c r="E14" s="40">
+        <v>750</v>
+      </c>
+      <c r="F14" s="40">
+        <v>440</v>
+      </c>
+      <c r="G14" s="40">
+        <v>485</v>
+      </c>
+      <c r="H14" s="40">
+        <v>510</v>
+      </c>
+      <c r="I14" s="40">
+        <v>347</v>
+      </c>
+      <c r="J14" s="40">
+        <v>736</v>
+      </c>
+      <c r="K14" s="40">
+        <v>155</v>
+      </c>
+      <c r="L14" s="40">
+        <v>450</v>
+      </c>
+      <c r="M14" s="8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="40">
+        <v>75</v>
+      </c>
+      <c r="C15" s="40">
+        <v>40</v>
+      </c>
+      <c r="D15" s="40">
+        <v>65</v>
+      </c>
+      <c r="E15" s="40">
+        <v>50</v>
+      </c>
+      <c r="F15" s="40">
+        <v>24</v>
+      </c>
+      <c r="G15" s="40">
+        <v>71</v>
+      </c>
+      <c r="H15" s="40">
+        <v>57</v>
+      </c>
+      <c r="I15" s="40">
+        <v>61</v>
+      </c>
+      <c r="J15" s="40">
+        <v>34</v>
+      </c>
+      <c r="K15" s="40">
+        <v>41</v>
+      </c>
+      <c r="L15" s="40">
+        <v>58</v>
+      </c>
+      <c r="M15" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="10">
+        <v>200</v>
+      </c>
+      <c r="C16" s="10">
+        <v>118</v>
+      </c>
+      <c r="D16" s="10">
+        <v>145</v>
+      </c>
+      <c r="E16" s="10">
+        <v>210</v>
+      </c>
+      <c r="F16" s="10">
+        <v>45</v>
+      </c>
+      <c r="G16" s="10">
+        <v>170</v>
+      </c>
+      <c r="H16" s="10">
+        <v>130</v>
+      </c>
+      <c r="I16" s="10">
+        <v>90</v>
+      </c>
+      <c r="J16" s="10">
+        <v>55</v>
+      </c>
+      <c r="K16" s="10">
+        <v>110</v>
+      </c>
+      <c r="L16" s="10">
+        <v>130</v>
+      </c>
+      <c r="M16" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A78262-A6F6-46E6-9F18-B31A3F2889F3}">
+  <dimension ref="A2:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="36">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="36">
+        <v>35</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="36">
+        <v>65000</v>
+      </c>
+      <c r="H3" s="37">
+        <v>35040</v>
+      </c>
+      <c r="I3" s="37">
+        <v>41528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="36">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="36">
+        <v>29</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="36">
+        <v>63000</v>
+      </c>
+      <c r="H4" s="37">
+        <v>36530</v>
+      </c>
+      <c r="I4" s="37">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="36">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="36">
+        <v>32</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="36">
+        <v>50000</v>
+      </c>
+      <c r="H5" s="37">
+        <v>37017</v>
+      </c>
+      <c r="I5" s="37">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="36">
+        <v>1008</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="36">
+        <v>38</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="36">
+        <v>48000</v>
+      </c>
+      <c r="H6" s="37">
+        <v>37416</v>
+      </c>
+      <c r="I6" s="37">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="36">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="36">
+        <v>31</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="36">
+        <v>47000</v>
+      </c>
+      <c r="H7" s="37">
+        <v>36530</v>
+      </c>
+      <c r="I7" s="37">
+        <v>42341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="36">
+        <v>1001</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36">
+        <v>30</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="36">
+        <v>45000</v>
+      </c>
+      <c r="H8" s="37">
+        <v>37197</v>
+      </c>
+      <c r="I8" s="37">
+        <v>42253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="36">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="36">
+        <v>31</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="36">
+        <v>42000</v>
+      </c>
+      <c r="H9" s="37">
+        <v>37843</v>
+      </c>
+      <c r="I9" s="37">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="36">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="36">
+        <v>32</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="36">
+        <v>41000</v>
+      </c>
+      <c r="H10" s="37">
+        <v>37933</v>
+      </c>
+      <c r="I10" s="37">
+        <v>41551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="36">
+        <v>1002</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="36">
+        <v>30</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="36">
+        <v>36000</v>
+      </c>
+      <c r="H11" s="37">
+        <v>36436</v>
+      </c>
+      <c r="I11" s="37">
+        <v>42287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="40">
+        <v>450</v>
+      </c>
+      <c r="C15" s="40">
+        <v>310</v>
+      </c>
+      <c r="D15" s="40">
+        <v>150</v>
+      </c>
+      <c r="E15" s="40">
+        <v>750</v>
+      </c>
+      <c r="F15" s="40">
+        <v>440</v>
+      </c>
+      <c r="G15" s="40">
+        <v>485</v>
+      </c>
+      <c r="H15" s="40">
+        <v>510</v>
+      </c>
+      <c r="I15" s="40">
+        <v>347</v>
+      </c>
+      <c r="J15" s="40">
+        <v>736</v>
+      </c>
+      <c r="K15" s="40">
+        <v>155</v>
+      </c>
+      <c r="L15" s="40">
+        <v>450</v>
+      </c>
+      <c r="M15" s="40">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="40">
+        <v>75</v>
+      </c>
+      <c r="C16" s="40">
+        <v>40</v>
+      </c>
+      <c r="D16" s="40">
+        <v>65</v>
+      </c>
+      <c r="E16" s="40">
+        <v>50</v>
+      </c>
+      <c r="F16" s="40">
+        <v>24</v>
+      </c>
+      <c r="G16" s="40">
+        <v>71</v>
+      </c>
+      <c r="H16" s="40">
+        <v>57</v>
+      </c>
+      <c r="I16" s="40">
+        <v>61</v>
+      </c>
+      <c r="J16" s="40">
+        <v>34</v>
+      </c>
+      <c r="K16" s="40">
+        <v>41</v>
+      </c>
+      <c r="L16" s="40">
+        <v>58</v>
+      </c>
+      <c r="M16" s="40">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="40">
+        <v>200</v>
+      </c>
+      <c r="C17" s="40">
+        <v>118</v>
+      </c>
+      <c r="D17" s="40">
+        <v>145</v>
+      </c>
+      <c r="E17" s="40">
+        <v>210</v>
+      </c>
+      <c r="F17" s="40">
+        <v>45</v>
+      </c>
+      <c r="G17" s="40">
+        <v>170</v>
+      </c>
+      <c r="H17" s="40">
+        <v>130</v>
+      </c>
+      <c r="I17" s="40">
+        <v>90</v>
+      </c>
+      <c r="J17" s="40">
+        <v>55</v>
+      </c>
+      <c r="K17" s="40">
+        <v>110</v>
+      </c>
+      <c r="L17" s="40">
+        <v>130</v>
+      </c>
+      <c r="M17" s="40">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B15:M15">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:M16">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G12">
+    <cfRule type="aboveAverage" dxfId="11" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:M17">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G11">
+    <cfRule type="aboveAverage" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Scott">
+      <formula>NOT(ISERROR(SEARCH("Scott",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>D3:D11&gt;30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>